--- a/data/seizure_metadata.xlsx
+++ b/data/seizure_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aitan\Escritorio\IMCV\2nd semester\BMIA\Part 2\seizure_detection_project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kikal\OneDrive\Documentos\WorkspaceCarolina\AIB\Module2\Aitana\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3442C528-1417-4E84-921D-4B1055AAE751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C820F3FE-BA51-4898-8A99-510CF5225705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="1065" windowWidth="22065" windowHeight="14040" activeTab="2" xr2:uid="{69F3FABD-DFB9-4A6F-9630-8A75EF3ECECA}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="2" xr2:uid="{69F3FABD-DFB9-4A6F-9630-8A75EF3ECECA}"/>
   </bookViews>
   <sheets>
     <sheet name="disk" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
   <si>
     <t>id,class,clinical_begin,clinical_end</t>
   </si>
@@ -256,33 +256,6 @@
     <t>612.37</t>
   </si>
   <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>18.29</t>
-  </si>
-  <si>
-    <t>18.09</t>
-  </si>
-  <si>
-    <t>17.71</t>
-  </si>
-  <si>
-    <t>21.83</t>
-  </si>
-  <si>
-    <t>19.74</t>
-  </si>
-  <si>
-    <t>22.89</t>
-  </si>
-  <si>
-    <t>18.96</t>
-  </si>
-  <si>
-    <t>22.77</t>
-  </si>
-  <si>
     <t>Resolution</t>
   </si>
   <si>
@@ -308,6 +281,36 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Test (1) or Train (0)?</t>
+  </si>
+  <si>
+    <t>456.66</t>
+  </si>
+  <si>
+    <t>530.23</t>
+  </si>
+  <si>
+    <t>638.21</t>
+  </si>
+  <si>
+    <t>325.99</t>
+  </si>
+  <si>
+    <t>629.34</t>
+  </si>
+  <si>
+    <t>546.83</t>
+  </si>
+  <si>
+    <t>193.65</t>
+  </si>
+  <si>
+    <t>381.50</t>
+  </si>
+  <si>
+    <t>526.19</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de l'Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -725,109 +728,109 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -845,12 +848,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -861,7 +864,7 @@
         <v>0.90082175925925922</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -872,7 +875,7 @@
         <v>0.32868055555555553</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -883,7 +886,7 @@
         <v>0.80002314814814812</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -894,7 +897,7 @@
         <v>0.5848726851851852</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -905,7 +908,7 @@
         <v>0.69290509259259259</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -916,7 +919,7 @@
         <v>0.55616898148148153</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -927,7 +930,7 @@
         <v>0.61633101851851857</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -938,7 +941,7 @@
         <v>0.62648148148148153</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -949,7 +952,7 @@
         <v>0.46292824074074074</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -960,7 +963,7 @@
         <v>2.1585648148148149E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -971,7 +974,7 @@
         <v>0.84869212962962959</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -982,7 +985,7 @@
         <v>0.99621527777777774</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -993,7 +996,7 @@
         <v>0.10231481481481482</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>0.57686342592592588</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>0.49959490740740742</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>0.2865509259259259</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>18</v>
       </c>
@@ -1037,7 +1040,7 @@
         <v>0.85275462962962967</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1055,28 +1058,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9829353B-5420-4673-91E7-388CDDF52CB8}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" customWidth="1"/>
+    <col min="7" max="7" width="24.36328125" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -1084,10 +1087,10 @@
         <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>35</v>
@@ -1102,19 +1105,22 @@
         <v>65</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1139,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J2" s="1">
         <v>6.2500000000000003E-3</v>
@@ -1153,8 +1159,11 @@
       <c r="L2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1179,10 +1188,10 @@
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1">
         <v>5.5555555555555558E-3</v>
@@ -1193,8 +1202,11 @@
       <c r="L3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1222,7 +1234,7 @@
         <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J4" s="1">
         <v>2.8703703703703703E-3</v>
@@ -1233,8 +1245,11 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1262,7 +1277,7 @@
         <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J5" s="1">
         <v>5.6712962962962967E-4</v>
@@ -1273,8 +1288,11 @@
       <c r="L5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1302,7 +1320,7 @@
         <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J6" s="1">
         <v>3.3912037037037036E-3</v>
@@ -1313,8 +1331,11 @@
       <c r="L6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1342,7 +1363,7 @@
         <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J7" s="1">
         <v>1.6782407407407408E-3</v>
@@ -1353,8 +1374,11 @@
       <c r="L7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1382,7 +1406,7 @@
         <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J8" s="1">
         <v>2.0717592592592593E-3</v>
@@ -1393,8 +1417,11 @@
       <c r="L8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1422,7 +1449,7 @@
         <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J9" s="1">
         <v>5.5555555555555558E-3</v>
@@ -1433,8 +1460,11 @@
       <c r="L9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1492,7 @@
         <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J10" s="1">
         <v>4.8611111111111112E-3</v>
@@ -1473,8 +1503,11 @@
       <c r="L10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1499,10 +1532,10 @@
         <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J11" s="1">
         <v>2.5115740740740741E-3</v>
@@ -1513,8 +1546,11 @@
       <c r="L11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1539,10 +1575,10 @@
         <v>46</v>
       </c>
       <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" t="s">
         <v>73</v>
-      </c>
-      <c r="I12" t="s">
-        <v>82</v>
       </c>
       <c r="J12" s="1">
         <v>2.8240740740740739E-3</v>
@@ -1553,8 +1589,11 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1579,10 +1618,10 @@
         <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J13" s="1">
         <v>3.2291666666666666E-3</v>
@@ -1593,8 +1632,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1619,10 +1661,10 @@
         <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J14" s="1">
         <v>1.724537037037037E-3</v>
@@ -1633,8 +1675,11 @@
       <c r="L14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1659,10 +1704,10 @@
         <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J15" s="1">
         <v>4.1550925925925922E-3</v>
@@ -1673,8 +1718,11 @@
       <c r="L15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1699,10 +1747,10 @@
         <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J16" s="1">
         <v>2.9282407407407408E-3</v>
@@ -1713,8 +1761,11 @@
       <c r="L16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1739,10 +1790,10 @@
         <v>51</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J17" s="1">
         <v>1.9907407407407408E-3</v>
@@ -1753,8 +1804,11 @@
       <c r="L17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1779,10 +1833,10 @@
         <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J18" s="1">
         <v>2.7430555555555554E-3</v>
@@ -1793,8 +1847,11 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1819,10 +1876,10 @@
         <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J19" s="1">
         <v>3.2291666666666666E-3</v>
@@ -1832,6 +1889,9 @@
       </c>
       <c r="L19" s="3">
         <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/seizure_metadata.xlsx
+++ b/data/seizure_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kikal\OneDrive\Documentos\WorkspaceCarolina\AIB\Module2\Aitana\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C820F3FE-BA51-4898-8A99-510CF5225705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4E3497-DD6D-4400-A35F-238257A3B863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="2" xr2:uid="{69F3FABD-DFB9-4A6F-9630-8A75EF3ECECA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{69F3FABD-DFB9-4A6F-9630-8A75EF3ECECA}"/>
   </bookViews>
   <sheets>
     <sheet name="disk" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
   <si>
     <t>id,class,clinical_begin,clinical_end</t>
   </si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>Test (1) or Train (0)?</t>
   </si>
   <si>
     <t>456.66</t>
@@ -1058,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9829353B-5420-4673-91E7-388CDDF52CB8}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="M1" sqref="M1:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1079,7 +1076,7 @@
     <col min="12" max="12" width="11.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -1116,11 +1113,8 @@
       <c r="L1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1159,11 +1153,8 @@
       <c r="L2" s="3">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1202,11 +1193,8 @@
       <c r="L3" s="3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1245,11 +1233,8 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1288,11 +1273,8 @@
       <c r="L5" s="3">
         <v>1</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1331,11 +1313,8 @@
       <c r="L6" s="3">
         <v>1</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1374,11 +1353,8 @@
       <c r="L7" s="3">
         <v>1</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1417,11 +1393,8 @@
       <c r="L8" s="3">
         <v>1</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1460,11 +1433,8 @@
       <c r="L9" s="3">
         <v>1</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1503,11 +1473,8 @@
       <c r="L10" s="3">
         <v>1</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1532,7 +1499,7 @@
         <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
         <v>73</v>
@@ -1546,11 +1513,8 @@
       <c r="L11" s="3">
         <v>1</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1575,7 +1539,7 @@
         <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
         <v>73</v>
@@ -1589,11 +1553,8 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1618,7 +1579,7 @@
         <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s">
         <v>73</v>
@@ -1632,11 +1593,8 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1661,7 +1619,7 @@
         <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
         <v>73</v>
@@ -1675,11 +1633,8 @@
       <c r="L14" s="3">
         <v>1</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1704,7 +1659,7 @@
         <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
         <v>73</v>
@@ -1718,11 +1673,8 @@
       <c r="L15" s="3">
         <v>1</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1747,7 +1699,7 @@
         <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s">
         <v>73</v>
@@ -1761,11 +1713,8 @@
       <c r="L16" s="3">
         <v>1</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1739,7 @@
         <v>51</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
         <v>73</v>
@@ -1804,11 +1753,8 @@
       <c r="L17" s="3">
         <v>1</v>
       </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1833,7 +1779,7 @@
         <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
         <v>73</v>
@@ -1847,11 +1793,8 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1876,7 +1819,7 @@
         <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s">
         <v>73</v>
@@ -1889,9 +1832,6 @@
       </c>
       <c r="L19" s="3">
         <v>0</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
